--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.6_LeftGrid.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.6_LeftGrid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C512A394-3708-478A-BEB5-8DF0E6E0F237}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170332C8-B09A-4EF7-BD26-F4BD5139CF9E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -194,13 +194,13 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,24 +542,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -731,14 +731,14 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -778,14 +778,14 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -869,14 +869,14 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
@@ -916,14 +916,14 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -1001,17 +1001,14 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A30:F30"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
